--- a/backend/assets/sample_students.xlsx
+++ b/backend/assets/sample_students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shruthi V\Desktop\kavya\projects\od-latest\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA3119-7F65-470A-8143-261E7778AE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5285B7-74FC-46A0-BAA7-416775BA95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -37,42 +37,12 @@
     <t>facultyAdvisor</t>
   </si>
   <si>
-    <t>Vishnu Raj</t>
-  </si>
-  <si>
-    <t>Priya Devi</t>
-  </si>
-  <si>
-    <t>2023103555</t>
-  </si>
-  <si>
-    <t>2023103556</t>
-  </si>
-  <si>
-    <t>2023103557</t>
-  </si>
-  <si>
     <t>CSE</t>
   </si>
   <si>
-    <t>fac1</t>
-  </si>
-  <si>
-    <t>Kavya</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>c@gmail.com</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -83,6 +53,30 @@
   </si>
   <si>
     <t>passk</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>Dr.A.Aaa</t>
+  </si>
+  <si>
+    <t>Dr.B.Bbb</t>
+  </si>
+  <si>
+    <t>x@gmail.com</t>
+  </si>
+  <si>
+    <t>y@gmail.com</t>
+  </si>
+  <si>
+    <t>z@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -479,6 +473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,79 +494,79 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2023103000</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2023103001</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2023103002</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
